--- a/15년도 연봉.xlsx
+++ b/15년도 연봉.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee96\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019년 3학년 2학기\응용머신러닝\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F81CD1A-4A04-45DE-9007-45D74EA5A014}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D8F0DE-FB4B-4DBE-9917-0B2DAFF75F1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{899BBC9E-1FEE-4B50-B336-F5C9F66935D7}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{899BBC9E-1FEE-4B50-B336-F5C9F66935D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1091,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD028D06-52BE-4147-89E9-75B8B5FBE4E2}">
-  <dimension ref="A1:E316"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1714,7 +1717,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1747,8 +1750,11 @@
       <c r="E18" s="3">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>-9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>-0.108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>-0.94499999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1950,7 +1956,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
